--- a/Test Cases Template Search Page.xlsx
+++ b/Test Cases Template Search Page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzhingova\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="167">
   <si>
     <t>TC Title</t>
   </si>
@@ -79,75 +79,16 @@
   </si>
   <si>
     <t>012</t>
-  </si>
-  <si>
-    <t>1. Navigate to Home page/Search Page
-2.Press Search button</t>
-  </si>
-  <si>
-    <t>Home page --&gt; Search page link is working</t>
   </si>
   <si>
     <t>1. Navigate to Home page 
 2. Press the Search page button</t>
   </si>
   <si>
-    <t xml:space="preserve">everything in the Store is being loaeded </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet owner's name" checkbox checked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Home page/Search Page
-2.Check "Pet owner's name" checkbox
-3. Press Search button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "User's Town" checkbox checked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Home page/Search Page
-2.Check "User's Town" checkbox
-3. Press Search button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Breed" checkbox checked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Home page/Search Page
-2.Check "Pet Breed" checkbox
-3. Press Search button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Birthday" checkbox checked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Home page/Search Page
-2.Check "Pet Birthday" checkbox
-3. Press Search button
-</t>
-  </si>
-  <si>
     <t>Search page - Search button</t>
   </si>
   <si>
     <t>Search page - Search button + 2 "filter results by" options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "User's Town" and "Pet Owner's name"checkbox are checked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Home page/Search Page
-Check "User's Town" checkbox
-2.Check "Pet Owner's name" checkbox
-3. Press Search button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "User's Town"+1 "Pet Type" option checkbox checked </t>
   </si>
   <si>
     <t xml:space="preserve">1. Navigate to Home page/Search Page
@@ -157,22 +98,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The chosen Pet type is loaded by User's town  alphabetical order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "User's Town" +1 "Subscription" option checkbox checked </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Home page/Search Page
-2.Check "User's Town" checkbox
-3.Check 1 option from "Subscription"
-3. Press Search button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Owner's name "+1 "Pet Type" option checkbox checked </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Navigate to Home page/Search Page
 2.Check "Pet Owner's name " checkbox
 3.Check 1 option from "Pet Type"
@@ -180,9 +105,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Owner's name" +1 "Subscription" option checkbox checked </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Navigate to Home page/Search Page
 2.Check "Pet Owner's name" checkbox
 3.Check 1 option from "Subscription"
@@ -190,9 +112,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Breed "+1 "Pet Type" option checkbox checked </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Navigate to Home page/Search Page
 2.Check "Pet Breed" checkbox
 3.Check 1 option from "Pet Type"
@@ -203,9 +122,6 @@
     <t>013</t>
   </si>
   <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Breed" +1 "Subscription" option checkbox checked </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Navigate to Home page/Search Page
 2.Check "Pet Breed" checkbox
 3.Check 1 option from "Subscription"
@@ -219,9 +135,6 @@
     <t>015</t>
   </si>
   <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Birthday"+1 "Pet Type" option checkbox checked </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Navigate to Home page/Search Page
 2.Check "Pet Birthday" checkbox
 3.Check 1 option from "Pet Type"
@@ -232,9 +145,6 @@
     <t>Search page - Search button/Pet Birthday + 1 Subscription</t>
   </si>
   <si>
-    <t xml:space="preserve">This TC will show that Search button is working with "Pet Birthday" +1 "Subscription" option checkbox checked </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Navigate to Home page/Search Page
 2.Check "Pet Birthday" checkbox
 3.Check 1 option from "Subscription"
@@ -308,10 +218,6 @@
 5.Press Search button</t>
   </si>
   <si>
-    <t>if searched key word exists - results containing it appear
-if key word don’t exists message should appear : No results for (key word) were found"</t>
-  </si>
-  <si>
     <t>022</t>
   </si>
   <si>
@@ -342,12 +248,6 @@
   </si>
   <si>
     <t>Search page - Search button + Key Word + 2 or more options from Pet Type</t>
-  </si>
-  <si>
-    <t>1. Navigate to Home page/Search Page
-2.In search field enter key word
-3.Check 2 or more Pet Type checkboxs
-4.Press Search button</t>
   </si>
   <si>
     <t xml:space="preserve">Search page - Search button + Key Word + 2 or more options from Subscription </t>
@@ -437,9 +337,6 @@
     <t xml:space="preserve">Search page - Search button + Key Word + Pet Birthday + Pet Type + Subscription </t>
   </si>
   <si>
-    <t>This TC will show that the Search button is working correctly when the User type Key word + Pet Birthday and option from Pet Type and Subscription</t>
-  </si>
-  <si>
     <t>1. Navigate to Home page/Search Page
 2.In search field enter key word
 3.Check Pet Birthday checkbox
@@ -457,9 +354,6 @@
     <t>The chosen Pet type is loaded by Pet Birthday</t>
   </si>
   <si>
-    <t xml:space="preserve">everything in the Store is being loaeded in User's town </t>
-  </si>
-  <si>
     <t xml:space="preserve">everything in the Store is being loaeded in Pet owner's </t>
   </si>
   <si>
@@ -490,24 +384,12 @@
     <t xml:space="preserve">The chosen Pet type is loaded by Pet Birthday  </t>
   </si>
   <si>
-    <t>if searched key word exists - results containing it appear 
-if key word don’t exists message should appear : No results for (key word) were found"</t>
-  </si>
-  <si>
     <t>order by User's Town</t>
   </si>
   <si>
-    <t>if searched key word exists - results containing it appear  
-if key word don’t exists message should appear : No results for (key word) were found"</t>
-  </si>
-  <si>
     <t>order by Pet Owner's name</t>
   </si>
   <si>
-    <t>if searched key word exists - results containing it appear 
-if it doesn't message : No results for (key word) were found"</t>
-  </si>
-  <si>
     <t xml:space="preserve">order by Pet Breed  </t>
   </si>
   <si>
@@ -545,55 +427,6 @@
   </si>
   <si>
     <t>Search page - Search button + Key Word + all options</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word and check all options</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word + Pet Breed and option from Pet Type and Subscription</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word + Pet Owner's name and option from Pet Type and Subscription</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word + User's Town and option from Pet Type and Subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that the Search button is working correctly when the User type a Key word +  2 or more options from Subscription </t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word +  2 or more options from Pet Type</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word + options User's Town and Pet Birthday</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word + options User's Town and Pet Breed</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word + options User's Town and Pet Owner's name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that the Search button is working correctly when the User type a Key word + option Pet Birthday </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that the Search button is working correctly when the User type a Key word + option Pet Breed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This TC will show that the Search button is working correctly when the User type a Key word + filter results by option Pet Owner's name </t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word + option User's Town</t>
-  </si>
-  <si>
-    <t>This TC will show that the Search button is working correctly when the User type a Key word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Input - Length Above 255 Chars
-</t>
-  </si>
-  <si>
-    <t>Checking the form with Search parameter value above 50 characters</t>
   </si>
   <si>
     <t>031</t>
@@ -611,10 +444,6 @@
     <t>Warning window should appear stating that the Search value should be 255 characters.</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify all checkboxes are unselected when page is loaded
-</t>
-  </si>
-  <si>
     <t>Options for Filter results by options should be cleared when page is loaded</t>
   </si>
   <si>
@@ -623,13 +452,1070 @@
   <si>
     <t>1. Navigate to Home page/Search Page
 2. Look at Subscription options checkboxes</t>
+  </si>
+  <si>
+    <r>
+      <t>Home page --&gt; Search page link is working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Not enough information </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to Home page/Search Page </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Search page or home page ?wtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Press Search button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">everything in the Store is being loaeded </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>what does everything means</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">everything in the Store is being loaeded in User's town </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>cant understand what is the result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Invalid Input - Length Above 255 Chars
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>where ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Home page/Search Page
+2.In search field enter key word
+3.Check 2 or more Pet Type checkboxs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+4.Press Search button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if searched key word exists - results containing it appear 
+if key word don’t exists message should appear : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No results for (key word) were found"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if searched key word exists - results containing it appear 
+if it doesn't message :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No results for (key word) were found"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if searched key word exists - results containing it appear  
+if key word don’t exists message should appear : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No results for (key word) were found"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if searched key word exists - results containing it appear
+if key word don’t exists message should appear : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No results for (key word) were found"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if searched key word exists - results containing it appear </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exists?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if key word don’t exists message should appear : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No results for (key word) were found"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This TC will show that the Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Birthday" +1 "Subscription" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Birthday"+1 "Pet Type" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Breed" +1 "Subscription" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Owner's name" +1 "Subscription" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This TC will show that Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Owner's name "+1 "Pet Type" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "User's Town" +1 "Subscription" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "User's Town"+1 "Pet Type" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This TC will show that Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "User's Town" and "Pet Owner's name"checkbox are checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Birthday" checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Breed" checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet owner's name" checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "User's Town" checkbox checked  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all checkboxes are unselected when page is loaded
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Checking the form with Search parameter value above 50 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it shpuld be 255</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This TC will show that the Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>s working correctly when the User type a Key word + option User's Town</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This TC will show that the Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + filter results by option Pet Owner's name </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + option Pet Breed </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word +  2 or more options from Pet Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word +  2 or more options from Subscription </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + User's Town and option from Pet Type and Subscription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + Pet Owner's name and option from Pet Type and Subscription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + Pet Breed and option from Pet Type and Subscription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type Key word + Pet Birthday and option from Pet Type and Subscription</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word and check all options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">button </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">is working correctly when the User type a Key word + option Pet Birthday </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + options User's Town and Pet Owner's name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + options User's Town and Pet Breed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Key word + options User's Town and Pet Birthday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working with "Pet Breed "+1 "Pet Type" option checkbox checked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Home page/Search Page
+2.Check "Pet Birthday" checkbox "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check" is not understandable enough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Press Search button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Home page/Search Page
+Check "User's Town" checkbox
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check "P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">et Owner's name" checkbox
+3. Press Search button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Home page/Search Page
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Subscription"
+3. Press Search button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The chosen Pet type is loaded by User's town  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">alphabetical order not in the requirements </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to Home page/Search Page </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Search page or home page ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Check "Pet owner's name" checkbox
+3. Press Search button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to Home page/Search Page </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Search page or home page ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Check "Pet Breed" checkbox
+3. Press Search button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Home page/Search Page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Search page or home page ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Check "User's Town" checkbox
+3. Press Search button
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1.The titles of the test cases are not understandable enough 2The first step of every test case is incorect/undestandable 3.The information  about expected resut is not understandable for my retarded  brain  4. No test cases for the Pet registration and user registration links 5."Check" is not understandable enough</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -652,8 +1538,44 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,8 +1594,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -711,11 +1648,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -759,8 +1708,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1063,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1080,7 +2047,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -1097,590 +2064,604 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E17" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="E19" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="E23" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="E24" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E26" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="D31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>161</v>
+        <v>112</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1825,6 +2806,9 @@
       <c r="A80" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:N6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Test Cases Template Search Page.xlsx
+++ b/Test Cases Template Search Page.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="168">
   <si>
     <t>TC Title</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Search page - Search button + Pet owner</t>
-  </si>
-  <si>
-    <t>Search page - Search button + User's Town</t>
   </si>
   <si>
     <t xml:space="preserve">Search page - Search button + Key Word + User's Town + Pet Type + Subscription </t>
@@ -470,31 +467,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Navigate to Home page/Search Page </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Search page or home page ?wtf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-2.Press Search button</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">everything in the Store is being loaeded </t>
     </r>
     <r>
@@ -506,21 +478,6 @@
         <charset val="204"/>
       </rPr>
       <t>what does everything means</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">everything in the Store is being loaeded in User's town </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>cant understand what is the result</t>
     </r>
   </si>
   <si>
@@ -660,28 +617,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>No results for (key word) were found"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This TC will show that the Search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> is working correctly when the User type a Key word</t>
     </r>
   </si>
   <si>
@@ -1509,6 +1444,62 @@
   </si>
   <si>
     <t>1.The titles of the test cases are not understandable enough 2The first step of every test case is incorect/undestandable 3.The information  about expected resut is not understandable for my retarded  brain  4. No test cases for the Pet registration and user registration links 5."Check" is not understandable enough</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Navigate to Search Page </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Search page or home page ?wtf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Press Search button</t>
+    </r>
+  </si>
+  <si>
+    <t>Search by user town</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: User Town"</t>
+  </si>
+  <si>
+    <r>
+      <t>This TC will show that the Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> is working correctly when the User type a Keyword</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2032,13 +2023,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:N6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -2072,13 +2063,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2092,10 +2086,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2103,16 +2097,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2123,16 +2117,16 @@
         <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -2148,13 +2142,13 @@
         <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2171,13 +2165,13 @@
         <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
@@ -2188,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
@@ -2205,13 +2199,13 @@
         <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
@@ -2222,13 +2216,13 @@
         <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
@@ -2239,13 +2233,13 @@
         <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2256,13 +2250,13 @@
         <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
@@ -2273,13 +2267,13 @@
         <v>63</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
@@ -2290,13 +2284,13 @@
         <v>62</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
@@ -2307,13 +2301,13 @@
         <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15"/>
     </row>
@@ -2325,13 +2319,13 @@
         <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2342,13 +2336,13 @@
         <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2359,16 +2353,16 @@
         <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2379,16 +2373,16 @@
         <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.2">
@@ -2399,16 +2393,16 @@
         <v>42</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2419,16 +2413,16 @@
         <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2439,16 +2433,16 @@
         <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2459,16 +2453,16 @@
         <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2479,16 +2473,16 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.2">
@@ -2499,169 +2493,169 @@
         <v>58</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="E27" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="E28" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="E29" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E30" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">

--- a/Test Cases Template Search Page.xlsx
+++ b/Test Cases Template Search Page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1995,7 +1995,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2045,8 +2045,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2054,10 +2057,13 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2369,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2386,7 @@
     <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="17" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2468,17 +2474,17 @@
       <c r="E5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -2496,15 +2502,15 @@
       <c r="E6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -3014,44 +3020,47 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="22" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Test Cases Template Search Page.xlsx
+++ b/Test Cases Template Search Page.xlsx
@@ -834,6 +834,329 @@
 2. Look at Subscription options checkboxes</t>
   </si>
   <si>
+    <t>1. Navigate to Search page Search page or home page ?wtf 
+2.Press Search button</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched"</t>
+  </si>
+  <si>
+    <t>Search page -Pet Birthday and Subscription</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Birthday"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Owner's name"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "User's Town" and "Pet Owner's name"checkbox are checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "User's Town " and "Pet Owner's" options marked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Birthday" checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Checking the search form with "Pet Birthday" option marked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Breed" checkbox checked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Checking the search form with "Pet Breed" option marked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "User's Town"+1 "Pet Type" option checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "User's Town " and "Pet Type" options marked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "User's Town" +1 "Subscription" option checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "User's Town " and "Pet Type" options marked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Owner's name " +1 "Pet Type" option checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "User's Town " and "Pet Type" options marked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Owner's name" +1 "Subscription" option checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "Pet Owner's name" and "Subscription" options marked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Breed "+1 "Pet Type" option checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "Pet Breed" and "Pet Type" options marked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Breed" +1 "Subscription" option checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "Pet Breed" and "Subscription" options marked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Birthday"+1 "Pet Type" option checkbox checked 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with "Pet Birthday" and "Pet Type" options marked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet Birthday" +1 "Subscription" option checkbox checked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Checking the search form with "Pet Birthday " and "Subscription" options marked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Checking the search form with User typing a Keyword </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and option User's Town
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with User typing a Keyword and selecting "User's Town" option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and filter results by option Pet Owner's name 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with User typing a Keyword and selecting "Pet Owner's" option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and option Pet Breed 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with User typing a Keyword and selecting "Pet Breed" option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and option Pet Birthday 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Checking the search form with User typing a Keyword and selecting "Pet Birthday" option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "Pet owner's name" checkbox checked Checking the search form with "Pet owner's name" option marked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Checking the search form with "Pet Owner's name" option marked </t>
+    </r>
+  </si>
+  <si>
+    <t>Search by Pet owner's name</t>
+  </si>
+  <si>
+    <t>Search by user's town</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This TC will show that Search option is working with "User's Town" checkbox checked Checking the search form with "User's Town" option marked
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Checking the search form with "User's Town" option marked </t>
+    </r>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by:
+" "</t>
+  </si>
+  <si>
     <r>
       <t>1. Navigate to Search page Search page or home page ?
 2.</t>
@@ -846,6 +1169,90 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
+3. Press Search option
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Search page Search page or home page ?
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Breed" checkbox
+3. Press Search option
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Search page Search page or home page ?
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t>Check</t>
     </r>
     <r>
@@ -862,60 +1269,6 @@
   </si>
   <si>
     <r>
-      <t>1. Navigate to Search page Search page or home page ?
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "User's Town" checkbox
-3. Press Search option
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Navigate to Search page Search page or home page ?
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> "Pet Breed" checkbox
-3. Press Search option
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1. Navigate to Search page
 2.</t>
     </r>
@@ -936,7 +1289,92 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Birthday" checkbox "Check" is not understandable enough
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Birthday" checkbox </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Check" is not understandable enough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Press Search option
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Navigate to Search page
+Check "User's Town" checkbox
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Owner's name" checkbox
 3. Press Search option
 </t>
     </r>
@@ -963,7 +1401,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "User's Town" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
 3.</t>
     </r>
     <r>
@@ -983,7 +1440,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Pet Type"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Pet Type"
 3. Press Search option
 </t>
     </r>
@@ -1010,7 +1486,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "User's Town" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
 3.</t>
     </r>
     <r>
@@ -1030,7 +1525,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Subscription"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Subscription"
 3. Press Search option
 </t>
     </r>
@@ -1057,7 +1571,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Owner's name " checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Owner's name " checkbox
 3.</t>
     </r>
     <r>
@@ -1077,7 +1610,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Pet Type"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Pet Type"
 3. Press Search option
 </t>
     </r>
@@ -1104,7 +1656,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Owner's name" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Owner's name" checkbox
 3.</t>
     </r>
     <r>
@@ -1124,7 +1695,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Subscription"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Subscription"
 3. Press Search option
 </t>
     </r>
@@ -1151,7 +1741,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Breed" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Breed" checkbox
 3.</t>
     </r>
     <r>
@@ -1171,7 +1780,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Pet Type"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Pet Type"
 3. Press Search option
 </t>
     </r>
@@ -1198,7 +1826,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Breed" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Breed" checkbox
 3.</t>
     </r>
     <r>
@@ -1218,7 +1865,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Subscription"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Subscription"
 3. Press Search option
 </t>
     </r>
@@ -1245,7 +1911,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Birthday" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Birthday" checkbox
 3.</t>
     </r>
     <r>
@@ -1265,7 +1950,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Pet Type"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Pet Type"
 4.Press Search option
 </t>
     </r>
@@ -1292,7 +1996,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Birthday" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Birthday" checkbox
 3.</t>
     </r>
     <r>
@@ -1312,7 +2035,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 1 option from "Subscription"
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1 option from "Subscription"
 3. Press Search option
 </t>
     </r>
@@ -1340,7 +2082,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "User's Town" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
 4.Press Search option</t>
     </r>
   </si>
@@ -1367,7 +2128,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Owner's name" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Owner's name" checkbox
 4.Press Search option</t>
     </r>
   </si>
@@ -1394,7 +2174,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Breed" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Breed" checkbox
 4.Press Search option</t>
     </r>
   </si>
@@ -1421,28 +2220,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "User's Town" checkbox
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Check "Pet Owner's name" checkbox
-5.Press Search option</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"Pet Birthday" checkbox
+4.Press Search option</t>
     </r>
   </si>
   <si>
@@ -1468,7 +2266,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "User's Town" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
 4.</t>
     </r>
     <r>
@@ -1488,7 +2305,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Breed" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Owner's name" checkbox
 5.Press Search option</t>
     </r>
   </si>
@@ -1515,7 +2351,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "User's Town" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
 4.</t>
     </r>
     <r>
@@ -1535,7 +2390,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Birthday" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Breed" checkbox
 5.Press Search option</t>
     </r>
   </si>
@@ -1562,8 +2436,66 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 2 or more Pet Type checkboxs
-4.Press Search option</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "User's Town" checkbox
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Pet Birthday" checkbox
+5.Press Search option</t>
     </r>
   </si>
   <si>
@@ -1589,7 +2521,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check 2 or more options from Subscription filter
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2 or more Pet Type checkboxs
 4.Press Search option</t>
     </r>
   </si>
@@ -1616,47 +2567,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check User's Town checkbox
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Check option from Pet type
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Check option fromSubscription
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2 or more options from Subscription filter
 4.Press Search option</t>
     </r>
   </si>
@@ -1683,7 +2613,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check Pet Owner's name checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> User's Town checkbox
 4.</t>
     </r>
     <r>
@@ -1703,7 +2652,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check option from Pet type
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option from Pet type
 3.</t>
     </r>
     <r>
@@ -1723,7 +2691,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check option fromSubscription
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option fromSubscription
 4.Press Search option</t>
     </r>
   </si>
@@ -1750,7 +2737,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check Pet Breed checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pet Owner's name checkbox
 4.</t>
     </r>
     <r>
@@ -1770,7 +2776,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check option from Pet type
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option from Pet type
 3.</t>
     </r>
     <r>
@@ -1790,7 +2815,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check option fromSubscription
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option fromSubscription
 4.Press Search option</t>
     </r>
   </si>
@@ -1817,7 +2861,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check Pet Birthday checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pet Breed checkbox
 4.</t>
     </r>
     <r>
@@ -1837,7 +2900,26 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check option from Pet type
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option from Pet type
 3.</t>
     </r>
     <r>
@@ -1857,289 +2939,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check option fromSubscription
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option fromSubscription
 4.Press Search option</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Navigate to Search page Search page or home page ?wtf 
-2.Press Search button</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched"</t>
-  </si>
-  <si>
-    <t>Search page -Pet Birthday and Subscription</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Birthday"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Owner's name"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "User's Town" and "Pet Owner's name"checkbox are checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "User's Town " and "Pet Owner's" options marked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Birthday" checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Checking the search form with "Pet Birthday" option marked </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Breed" checkbox checked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Checking the search form with "Pet Breed" option marked </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "User's Town"+1 "Pet Type" option checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "User's Town " and "Pet Type" options marked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "User's Town" +1 "Subscription" option checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "User's Town " and "Pet Type" options marked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Owner's name " +1 "Pet Type" option checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "User's Town " and "Pet Type" options marked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Owner's name" +1 "Subscription" option checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "Pet Owner's name" and "Subscription" options marked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Breed "+1 "Pet Type" option checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "Pet Breed" and "Pet Type" options marked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Breed" +1 "Subscription" option checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "Pet Breed" and "Subscription" options marked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Birthday"+1 "Pet Type" option checkbox checked 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with "Pet Birthday" and "Pet Type" options marked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet Birthday" +1 "Subscription" option checkbox checked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Checking the search form with "Pet Birthday " and "Subscription" options marked </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Checking the search form with User typing a Keyword </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and option User's Town
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with User typing a Keyword and selecting "User's Town" option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and filter results by option Pet Owner's name 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with User typing a Keyword and selecting "Pet Owner's" option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and option Pet Breed 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with User typing a Keyword and selecting "Pet Breed" option</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and option Pet Birthday 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with User typing a Keyword and selecting "Pet Birthday" option</t>
     </r>
   </si>
   <si>
@@ -2165,79 +2985,106 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Check "Pet Birthday" checkbox
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Pet Birthday checkbox
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option from Pet type
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> option fromSubscription
 4.Press Search option</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "Pet owner's name" checkbox checked Checking the search form with "Pet owner's name" option marked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Checking the search form with "Pet Owner's name" option marked </t>
-    </r>
-  </si>
-  <si>
-    <t>Search by Pet owner's name</t>
-  </si>
-  <si>
-    <t>Search by user's town</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This TC will show that Search option is working with "User's Town" checkbox checked Checking the search form with "User's Town" option marked
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Checking the search form with "User's Town" option marked </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. Navigate to Search page
-Check "User's Town" checkbox
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Check "Pet Owner's name" checkbox
-3. Press Search option
-</t>
-    </r>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by:
-" "</t>
   </si>
 </sst>
 </file>
@@ -2462,14 +3309,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2780,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2840,13 +3687,13 @@
         <v>104</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2854,13 +3701,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>72</v>
@@ -2871,13 +3718,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>47</v>
@@ -2885,16 +3732,16 @@
       <c r="F5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2902,10 +3749,10 @@
         <v>75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>48</v>
@@ -2913,12 +3760,12 @@
       <c r="F6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -2928,16 +3775,16 @@
         <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
@@ -2948,16 +3795,16 @@
         <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
@@ -2968,10 +3815,10 @@
         <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>51</v>
@@ -2988,10 +3835,10 @@
         <v>78</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>52</v>
@@ -3008,10 +3855,10 @@
         <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>53</v>
@@ -3028,10 +3875,10 @@
         <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>54</v>
@@ -3048,10 +3895,10 @@
         <v>100</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>55</v>
@@ -3068,10 +3915,10 @@
         <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>56</v>
@@ -3088,10 +3935,10 @@
         <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>57</v>
@@ -3106,13 +3953,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>58</v>
@@ -3129,7 +3976,7 @@
         <v>84</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>118</v>
@@ -3138,7 +3985,7 @@
         <v>85</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3149,16 +3996,16 @@
         <v>86</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3169,16 +4016,16 @@
         <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
@@ -3189,16 +4036,16 @@
         <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>91</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3209,16 +4056,16 @@
         <v>92</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3232,13 +4079,13 @@
         <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3252,13 +4099,13 @@
         <v>113</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3272,13 +4119,13 @@
         <v>112</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3292,13 +4139,13 @@
         <v>107</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.2">
@@ -3312,13 +4159,13 @@
         <v>106</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
@@ -3332,13 +4179,13 @@
         <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
@@ -3352,13 +4199,13 @@
         <v>108</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
@@ -3372,15 +4219,15 @@
         <v>109</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I29" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -3393,13 +4240,13 @@
         <v>110</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H30"/>
     </row>
@@ -3420,11 +4267,11 @@
         <v>87</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>37</v>
       </c>

--- a/Test Cases Template Search Page.xlsx
+++ b/Test Cases Template Search Page.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="182">
   <si>
     <t>TC Title</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Search page is loaded</t>
-  </si>
-  <si>
-    <t>Home Page</t>
   </si>
   <si>
     <t>003</t>
@@ -3085,6 +3082,33 @@
       <t xml:space="preserve"> option fromSubscription
 4.Press Search option</t>
     </r>
+  </si>
+  <si>
+    <t>Search Page</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: User's Town and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: User's Town and Subscription"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Owner's name and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Owner's name and Subscription"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Breed and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Breed and Subscription"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Birthday and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Birthday and Subscription"</t>
   </si>
 </sst>
 </file>
@@ -3627,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3650,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -3664,13 +3688,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>6</v>
@@ -3681,59 +3705,59 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="D3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -3743,22 +3767,22 @@
     </row>
     <row r="6" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -3769,585 +3793,585 @@
     </row>
     <row r="7" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="F17" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F18" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="F19" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="F20" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">

--- a/Test Cases Template Search Page.xlsx
+++ b/Test Cases Template Search Page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzhingova\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -707,22 +707,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type a Keyword and Pet Breed and option from Pet Type and Subscription
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Checking the search form with User typing a Keyword and selecting "Pet Breed" and  an option from "Pet Type" and "Subscription"</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">This TC will show that the Search option is working correctly when the User type Keyword and Pet Birthday and option from Pet Type and Subscription
 </t>
     </r>
@@ -844,9 +828,6 @@
     <t>A window with "you have successfully searched by: Pet Birthday"</t>
   </si>
   <si>
-    <t>A window with "you have successfully searched by: Pet Owner's name"</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">This TC will show that Search option is working with "User's Town" and "Pet Owner's name"checkbox are checked 
 </t>
@@ -2877,7 +2858,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> Pet Breed checkbox
+      <t xml:space="preserve"> Pet Birthday checkbox
 4.</t>
     </r>
     <r>
@@ -2960,162 +2941,53 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1. Navigate to Search page
+    <t>Search Page</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: User's Town and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: User's Town and Subscription"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Owner's name and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Owner's name and Subscription"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Breed and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Breed and Subscription"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Birthday and Pet Type"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by: Pet Birthday and Subscription"</t>
+  </si>
+  <si>
+    <t>A window with "you have successfully searched by:   User's Town and Pet Owner's name"</t>
+  </si>
+  <si>
+    <t>This TC will show that the Search option is working correctly when the User type a Keyword and Pet Breed and option from Pet Type and Subscription
+Checking the search form with User typing a Keyword and selecting "Pet Breed" and  an option from "Pet Type" and "Subscription"</t>
+  </si>
+  <si>
+    <t>1. Navigate to Search page
 2.In search field enter Keyword
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Pet Birthday checkbox
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> option from Pet type
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> option fromSubscription
+3.Select Check Pet Breed checkbox
+4.Select Check option from Pet type
+3.Select Check option fromSubscription
 4.Press Search option</t>
-    </r>
-  </si>
-  <si>
-    <t>Search Page</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: User's Town and Pet Type"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: User's Town and Subscription"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Owner's name and Pet Type"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Owner's name and Subscription"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Breed and Pet Type"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Breed and Subscription"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Birthday and Pet Type"</t>
-  </si>
-  <si>
-    <t>A window with "you have successfully searched by: Pet Birthday and Subscription"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3181,8 +3053,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3214,6 +3093,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3265,13 +3149,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3288,18 +3173,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3308,9 +3181,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3324,9 +3194,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3336,6 +3203,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3343,8 +3222,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3651,509 +3531,511 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="22.7109375" style="11" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>121</v>
+      <c r="D3" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>122</v>
+      <c r="F3" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="100.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>148</v>
+        <v>126</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>150</v>
+        <v>125</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>151</v>
+        <v>124</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>153</v>
+        <v>128</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>154</v>
+        <v>129</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>155</v>
+        <v>130</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="F12" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>156</v>
+        <v>131</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="F13" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>157</v>
+        <v>132</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="F14" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>158</v>
+        <v>133</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>180</v>
+      <c r="F15" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:14" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:14" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>159</v>
+        <v>134</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="F18" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="F20" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="F23" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="F24" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -4162,18 +4044,18 @@
       <c r="C25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="D25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="F25" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -4182,18 +4064,18 @@
       <c r="C26" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="F26" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -4202,18 +4084,18 @@
       <c r="C27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="F27" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -4222,155 +4104,155 @@
       <c r="C28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="F28" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="C29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="F29" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>146</v>
+      <c r="F30" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="13" t="s">
         <v>68</v>
       </c>
     </row>
